--- a/QA/testcases/LLS/Pharmacy/011_L_Phar_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/LLS/Pharmacy/011_L_Phar_Patient_App_ViewIncomplete.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306">
   <si>
     <t>Step No</t>
   </si>
@@ -590,45 +590,6 @@
   </si>
   <si>
     <t>LLS_T_SETTING</t>
-  </si>
-  <si>
-    <t>MEDICATION_NAME</t>
-  </si>
-  <si>
-    <t>Type Medication name</t>
-  </si>
-  <si>
-    <t>Medication name entered</t>
-  </si>
-  <si>
-    <t>Select Medication name</t>
-  </si>
-  <si>
-    <t>Medication name selected</t>
-  </si>
-  <si>
-    <t>DOSAGE</t>
-  </si>
-  <si>
-    <t>TestDosage</t>
-  </si>
-  <si>
-    <t>Enter Dosage</t>
-  </si>
-  <si>
-    <t>Dosage entered</t>
-  </si>
-  <si>
-    <t>FREQUENCY</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>Enter frequency</t>
-  </si>
-  <si>
-    <t>Frequency entered</t>
   </si>
   <si>
     <t>AGREE_SUBMIT_BUTTON</t>
@@ -996,10 +957,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1043,29 +1004,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1079,9 +1018,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1092,35 +1030,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1139,25 +1048,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,11 +1071,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1213,31 +1174,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,72 +1192,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1333,7 +1204,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1345,13 +1300,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1363,42 +1354,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1449,36 +1410,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
         <color theme="4" tint="0.399945066682943"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1540,8 +1475,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1560,21 +1510,21 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1586,130 +1536,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1722,7 +1672,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1733,7 +1683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2176,10 +2126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124:A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4697,485 +4647,379 @@
       <c r="G126" s="9"/>
       <c r="H126" s="17"/>
     </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="10">
+    <row r="127" customFormat="1" spans="1:8">
+      <c r="A127" s="7">
         <v>126</v>
       </c>
-      <c r="B127" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C127" s="11" t="s">
+      <c r="B127" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+    </row>
+    <row r="128" customFormat="1" spans="1:8">
+      <c r="A128" s="10">
+        <v>127</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11">
+        <v>8</v>
+      </c>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+    </row>
+    <row r="129" customFormat="1" spans="1:8">
+      <c r="A129" s="7">
+        <v>128</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D127" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F127" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="G127" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="H127" s="16"/>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="7">
-        <v>127</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9">
-        <v>5</v>
-      </c>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="17"/>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="10">
-        <v>128</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="G129" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="H129" s="16"/>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="D129" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+    </row>
+    <row r="130" customFormat="1" spans="1:8">
       <c r="A130" s="10">
         <v>129</v>
       </c>
-      <c r="B130" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F130" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G130" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="H130" s="17"/>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="B130" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11">
+        <v>5</v>
+      </c>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+    </row>
+    <row r="131" customFormat="1" spans="1:8">
       <c r="A131" s="7">
         <v>130</v>
       </c>
-      <c r="B131" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C131" s="11" t="s">
+      <c r="B131" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D131" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="F131" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="G131" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="H131" s="16"/>
+      <c r="D131" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H131" s="9"/>
     </row>
     <row r="132" customFormat="1" spans="1:8">
       <c r="A132" s="10">
         <v>131</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11">
+        <v>8</v>
+      </c>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+    </row>
+    <row r="133" customFormat="1" spans="1:8">
+      <c r="A133" s="7">
+        <v>132</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H133" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" customFormat="1" spans="1:8">
+      <c r="A134" s="10">
+        <v>133</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11">
+        <v>8</v>
+      </c>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+    </row>
+    <row r="135" s="4" customFormat="1" spans="1:8">
+      <c r="A135" s="7">
+        <v>134</v>
+      </c>
+      <c r="B135" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C132" s="9" t="s">
+      <c r="C135" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D132" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-    </row>
-    <row r="133" customFormat="1" spans="1:8">
-      <c r="A133" s="10">
-        <v>132</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="11">
-        <v>8</v>
-      </c>
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="11"/>
-    </row>
-    <row r="134" customFormat="1" spans="1:8">
-      <c r="A134" s="7">
-        <v>133</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
-    </row>
-    <row r="135" customFormat="1" spans="1:8">
-      <c r="A135" s="10">
-        <v>134</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
-      <c r="E135" s="11">
-        <v>5</v>
-      </c>
-      <c r="F135" s="11"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="11"/>
-    </row>
-    <row r="136" customFormat="1" spans="1:8">
+      <c r="D135" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H135" s="17"/>
+    </row>
+    <row r="136" s="4" customFormat="1" spans="1:8">
       <c r="A136" s="10">
         <v>135</v>
       </c>
-      <c r="B136" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D136" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G136" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="H136" s="9"/>
-    </row>
-    <row r="137" customFormat="1" spans="1:8">
+      <c r="B136" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11">
+        <v>10</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H136" s="16"/>
+    </row>
+    <row r="137" s="4" customFormat="1" spans="1:8">
       <c r="A137" s="7">
         <v>136</v>
       </c>
-      <c r="B137" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C137" s="11"/>
-      <c r="D137" s="11"/>
-      <c r="E137" s="11">
-        <v>8</v>
-      </c>
-      <c r="F137" s="11"/>
-      <c r="G137" s="11"/>
-      <c r="H137" s="11"/>
-    </row>
-    <row r="138" customFormat="1" spans="1:8">
+      <c r="B137" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H137" s="17"/>
+    </row>
+    <row r="138" s="4" customFormat="1" spans="1:8">
       <c r="A138" s="10">
         <v>137</v>
       </c>
-      <c r="B138" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G138" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H138" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="139" customFormat="1" spans="1:8">
-      <c r="A139" s="10">
+      <c r="B138" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11">
+        <v>4</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H138" s="16"/>
+    </row>
+    <row r="139" s="4" customFormat="1" spans="1:8">
+      <c r="A139" s="7">
         <v>138</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H139" s="17"/>
+    </row>
+    <row r="140" s="4" customFormat="1" spans="1:8">
+      <c r="A140" s="10">
+        <v>139</v>
+      </c>
+      <c r="B140" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
-      <c r="E139" s="11">
-        <v>8</v>
-      </c>
-      <c r="F139" s="11"/>
-      <c r="G139" s="11"/>
-      <c r="H139" s="11"/>
-    </row>
-    <row r="140" s="4" customFormat="1" spans="1:8">
-      <c r="A140" s="7">
-        <v>139</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C140" s="9" t="s">
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11">
+        <v>3</v>
+      </c>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="16"/>
+    </row>
+    <row r="141" s="4" customFormat="1" spans="1:8">
+      <c r="A141" s="7">
+        <v>140</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C141" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D140" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G140" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H140" s="17"/>
-    </row>
-    <row r="141" s="4" customFormat="1" spans="1:8">
-      <c r="A141" s="10">
-        <v>140</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C141" s="11"/>
-      <c r="D141" s="11"/>
-      <c r="E141" s="11">
-        <v>10</v>
-      </c>
-      <c r="F141" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G141" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H141" s="16"/>
+      <c r="D141" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E141" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F141" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G141" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="H141" s="17"/>
     </row>
     <row r="142" s="4" customFormat="1" spans="1:8">
       <c r="A142" s="10">
         <v>141</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C142" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D142" s="9" t="s">
+      <c r="C142" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9" t="s">
+      <c r="G142" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="G142" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="H142" s="17"/>
+      <c r="H142" s="16"/>
     </row>
     <row r="143" s="4" customFormat="1" spans="1:8">
       <c r="A143" s="7">
         <v>142</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
-      <c r="E143" s="11">
-        <v>4</v>
-      </c>
-      <c r="F143" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="G143" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="H143" s="16"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="9">
+        <v>10</v>
+      </c>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="17"/>
     </row>
     <row r="144" s="4" customFormat="1" spans="1:8">
       <c r="A144" s="10">
         <v>143</v>
       </c>
-      <c r="B144" s="17" t="s">
+      <c r="B144" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="C144" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D144" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="G144" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="H144" s="17"/>
+      <c r="D144" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="H144" s="16"/>
     </row>
     <row r="145" s="4" customFormat="1" spans="1:8">
-      <c r="A145" s="10">
+      <c r="A145" s="7">
         <v>144</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="11">
-        <v>3</v>
-      </c>
-      <c r="F145" s="11"/>
-      <c r="G145" s="11"/>
-      <c r="H145" s="16"/>
-    </row>
-    <row r="146" s="4" customFormat="1" spans="1:8">
-      <c r="A146" s="7">
-        <v>145</v>
-      </c>
-      <c r="B146" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C146" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D146" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="E146" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="F146" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="G146" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="H146" s="17"/>
-    </row>
-    <row r="147" s="4" customFormat="1" spans="1:8">
-      <c r="A147" s="10">
-        <v>146</v>
-      </c>
-      <c r="B147" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C147" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D147" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E147" s="11"/>
-      <c r="F147" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="G147" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="H147" s="16"/>
-    </row>
-    <row r="148" s="4" customFormat="1" spans="1:8">
-      <c r="A148" s="10">
-        <v>147</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C148" s="9"/>
-      <c r="D148" s="12"/>
-      <c r="E148" s="9">
-        <v>10</v>
-      </c>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="17"/>
-    </row>
-    <row r="149" s="4" customFormat="1" spans="1:8">
-      <c r="A149" s="7">
-        <v>148</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C149" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D149" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E149" s="11"/>
-      <c r="F149" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="G149" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="H149" s="16"/>
-    </row>
-    <row r="150" s="4" customFormat="1" spans="1:8">
-      <c r="A150" s="10">
-        <v>149</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C150" s="9"/>
-      <c r="D150" s="9"/>
-      <c r="E150" s="9">
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9">
         <v>6</v>
       </c>
-      <c r="F150" s="9"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="17"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="17"/>
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C15 B30 B31 B36 B45 B54 B55 B56 B57 B58 B59 B64 B65 B74 B75 B79 B82 B83 B84 B85 B86 B89 B98 B108 B127 B128 B145 B147 B148 B149 B150 B14:B20 B21:B29 B32:B35 B37:B38 B39:B44 B60:B63 B76:B78 B80:B81 B87:B88 B118:B124 B125:B126 B129:B131 B140:B141 B142:B143 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C15 B30 B31 B36 B45 B54 B55 B56 B57 B58 B59 B64 B65 B74 B75 B79 B82 B83 B84 B85 B86 B89 B98 B108 B140 B142 B143 B144 B145 B14:B20 B21:B29 B32:B35 B37:B38 B39:B44 B60:B63 B76:B78 B80:B81 B87:B88 B118:B124 B125:B126 B135:B136 B137:B138 C2:C3">
       <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 B13 C13 C99 C109 B4:B12 B46:B53 B66:B73 B90:B97 B99:B107 B109:B117 B132:B139 C7:C9 C46:C49 C50:C53 C66:C69 C70:C73 C90:C93 C94:C97 C100:C103 C104:C107 C110:C113 C114:C117 C132:C135 C136:C139">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 B13 C13 C99 C109 B4:B12 B46:B53 B66:B73 B90:B97 B99:B107 B109:B117 B127:B134 C7:C9 C46:C49 C50:C53 C66:C69 C70:C73 C90:C93 C94:C97 C100:C103 C104:C107 C110:C113 C114:C117 C127:C130 C131:C134">
       <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14 C16:C20 C21:C25">
@@ -5187,13 +5031,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C98">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146 C146">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B141 C141">
       <formula1>[7]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B151:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146:B1048576">
       <formula1>DataList!$C$2:$C$109</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C151:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C146:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
   </dataValidations>
@@ -5224,7 +5068,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5232,20 +5076,20 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5256,20 +5100,20 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -5277,47 +5121,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C11" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5327,12 +5171,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5342,45 +5186,45 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -5390,7 +5234,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5400,152 +5244,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5555,209 +5399,209 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -5767,12 +5611,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
     </row>
     <row r="102" spans="3:3">
